--- a/src/Skull-projections/Original Datasets/122 occip.xlsx
+++ b/src/Skull-projections/Original Datasets/122 occip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/Skull-projections/Original Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/src/Skull-projections/Original Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{90530186-78C0-AD4E-9EE9-EEAD897DC912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CBF9DAB-979B-7848-9254-0ED4AEBC1CAB}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{90530186-78C0-AD4E-9EE9-EEAD897DC912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72FA848E-F5AA-284B-9DD3-84A5B37B2803}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{1F5FBC9C-D8DC-A24A-B704-5B124C9416A1}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{1F5FBC9C-D8DC-A24A-B704-5B124C9416A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -193,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -206,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +531,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,7 +690,7 @@
         <v>100.2683</v>
       </c>
       <c r="E5">
-        <v>-174.40799999999999</v>
+        <v>-164.40799999999999</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -697,7 +705,7 @@
         <v>105.846557</v>
       </c>
       <c r="J5">
-        <v>-174.69159999999999</v>
+        <v>-165.69159999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -708,13 +716,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>24.441448000000001</v>
+        <v>21.441448000000001</v>
       </c>
       <c r="D6">
         <v>106.36785999999999</v>
       </c>
       <c r="E6">
-        <v>-165.86518000000001</v>
+        <v>-155.86518000000001</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
@@ -723,13 +731,13 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>-11.03824</v>
+        <v>-5.0380000000000003</v>
       </c>
       <c r="I6">
         <v>109.35057</v>
       </c>
       <c r="J6">
-        <v>-166.7</v>
+        <v>-157.72200000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1179,6 +1187,16 @@
       <c r="J20">
         <v>-106.464</v>
       </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E28" s="9"/>
